--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Efnb2-Ephb1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Efnb2-Ephb1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>40.497736</v>
+        <v>53.0169945</v>
       </c>
       <c r="H2">
-        <v>80.99547200000001</v>
+        <v>106.033989</v>
       </c>
       <c r="I2">
-        <v>0.4338277436889532</v>
+        <v>0.7442421144210264</v>
       </c>
       <c r="J2">
-        <v>0.3549025979779167</v>
+        <v>0.7041603619966643</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.8398145</v>
+        <v>1.058059</v>
       </c>
       <c r="N2">
-        <v>9.679629</v>
+        <v>2.116118</v>
       </c>
       <c r="O2">
-        <v>0.6099383944911378</v>
+        <v>0.806213901461467</v>
       </c>
       <c r="P2">
-        <v>0.5555826661207054</v>
+        <v>0.806213901461467</v>
       </c>
       <c r="Q2">
-        <v>196.001529909972</v>
+        <v>56.09510818367551</v>
       </c>
       <c r="R2">
-        <v>784.0061196398881</v>
+        <v>224.380432734702</v>
       </c>
       <c r="S2">
-        <v>0.264608197471353</v>
+        <v>0.6000183386993072</v>
       </c>
       <c r="T2">
-        <v>0.1971777315977358</v>
+        <v>0.5677038726998497</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>40.497736</v>
+        <v>53.0169945</v>
       </c>
       <c r="H3">
-        <v>80.99547200000001</v>
+        <v>106.033989</v>
       </c>
       <c r="I3">
-        <v>0.4338277436889532</v>
+        <v>0.7442421144210264</v>
       </c>
       <c r="J3">
-        <v>0.3549025979779167</v>
+        <v>0.7041603619966643</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -623,33 +623,33 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.542474</v>
+        <v>0.254321</v>
       </c>
       <c r="N3">
-        <v>3.084948</v>
+        <v>0.508642</v>
       </c>
       <c r="O3">
-        <v>0.1943905319314043</v>
+        <v>0.193786098538533</v>
       </c>
       <c r="P3">
-        <v>0.1770670791911279</v>
+        <v>0.193786098538533</v>
       </c>
       <c r="Q3">
-        <v>62.46670483886401</v>
+        <v>13.4833350582345</v>
       </c>
       <c r="R3">
-        <v>249.866819355456</v>
+        <v>53.93334023293801</v>
       </c>
       <c r="S3">
-        <v>0.08433200586229653</v>
+        <v>0.1442237757217192</v>
       </c>
       <c r="T3">
-        <v>0.06284156642129279</v>
+        <v>0.1364564892968147</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>26</v>
@@ -658,60 +658,60 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>40.497736</v>
+        <v>6.464838333333333</v>
       </c>
       <c r="H4">
-        <v>80.99547200000001</v>
+        <v>19.394515</v>
       </c>
       <c r="I4">
-        <v>0.4338277436889532</v>
+        <v>0.09075212572810222</v>
       </c>
       <c r="J4">
-        <v>0.3549025979779167</v>
+        <v>0.1287968964663749</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.542577333333333</v>
+        <v>1.058059</v>
       </c>
       <c r="N4">
-        <v>4.627732</v>
+        <v>2.116118</v>
       </c>
       <c r="O4">
-        <v>0.194403554531223</v>
+        <v>0.806213901461467</v>
       </c>
       <c r="P4">
-        <v>0.2656184118887309</v>
+        <v>0.806213901461467</v>
       </c>
       <c r="Q4">
-        <v>62.47088960491733</v>
+        <v>6.840180382128334</v>
       </c>
       <c r="R4">
-        <v>374.825337629504</v>
+        <v>41.04108229277</v>
       </c>
       <c r="S4">
-        <v>0.08433765542739287</v>
+        <v>0.07316562534917487</v>
       </c>
       <c r="T4">
-        <v>0.09426866445007893</v>
+        <v>0.1038378483962847</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>26</v>
@@ -720,60 +720,60 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>40.497736</v>
+        <v>6.464838333333333</v>
       </c>
       <c r="H5">
-        <v>80.99547200000001</v>
+        <v>19.394515</v>
       </c>
       <c r="I5">
-        <v>0.4338277436889532</v>
+        <v>0.09075212572810222</v>
       </c>
       <c r="J5">
-        <v>0.3549025979779167</v>
+        <v>0.1287968964663749</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.01005766666666667</v>
+        <v>0.254321</v>
       </c>
       <c r="N5">
-        <v>0.030173</v>
+        <v>0.508642</v>
       </c>
       <c r="O5">
-        <v>0.001267519046234871</v>
+        <v>0.193786098538533</v>
       </c>
       <c r="P5">
-        <v>0.001731842799435809</v>
+        <v>0.193786098538533</v>
       </c>
       <c r="Q5">
-        <v>0.4073127294426667</v>
+        <v>1.644144149771667</v>
       </c>
       <c r="R5">
-        <v>2.443876376656001</v>
+        <v>9.86486489863</v>
       </c>
       <c r="S5">
-        <v>0.0005498849279108483</v>
+        <v>0.01758650037892736</v>
       </c>
       <c r="T5">
-        <v>0.0006146355088091168</v>
+        <v>0.02495904807009016</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>6.464838333333333</v>
+        <v>0.6789063333333333</v>
       </c>
       <c r="H6">
-        <v>19.394515</v>
+        <v>2.036719</v>
       </c>
       <c r="I6">
-        <v>0.06925390168635236</v>
+        <v>0.00953035323444874</v>
       </c>
       <c r="J6">
-        <v>0.08498208097388053</v>
+        <v>0.01352563269430035</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -809,33 +809,33 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4.8398145</v>
+        <v>1.058059</v>
       </c>
       <c r="N6">
-        <v>9.679629</v>
+        <v>2.116118</v>
       </c>
       <c r="O6">
-        <v>0.6099383944911378</v>
+        <v>0.806213901461467</v>
       </c>
       <c r="P6">
-        <v>0.5555826661207054</v>
+        <v>0.806213901461467</v>
       </c>
       <c r="Q6">
-        <v>31.2886183058225</v>
+        <v>0.7183229561403334</v>
       </c>
       <c r="R6">
-        <v>187.731709834935</v>
+        <v>4.309937736842</v>
       </c>
       <c r="S6">
-        <v>0.04224061360682086</v>
+        <v>0.007683503263450829</v>
       </c>
       <c r="T6">
-        <v>0.04721457111995422</v>
+        <v>0.01090455310420666</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>6.464838333333333</v>
+        <v>0.6789063333333333</v>
       </c>
       <c r="H7">
-        <v>19.394515</v>
+        <v>2.036719</v>
       </c>
       <c r="I7">
-        <v>0.06925390168635236</v>
+        <v>0.00953035323444874</v>
       </c>
       <c r="J7">
-        <v>0.08498208097388053</v>
+        <v>0.01352563269430035</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -871,33 +871,33 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.542474</v>
+        <v>0.254321</v>
       </c>
       <c r="N7">
-        <v>3.084948</v>
+        <v>0.508642</v>
       </c>
       <c r="O7">
-        <v>0.1943905319314043</v>
+        <v>0.193786098538533</v>
       </c>
       <c r="P7">
-        <v>0.1770670791911279</v>
+        <v>0.193786098538533</v>
       </c>
       <c r="Q7">
-        <v>9.971845043369999</v>
+        <v>0.1726601375996667</v>
       </c>
       <c r="R7">
-        <v>59.83107026022</v>
+        <v>1.035960825598</v>
       </c>
       <c r="S7">
-        <v>0.01346230278713521</v>
+        <v>0.001846849970997911</v>
       </c>
       <c r="T7">
-        <v>0.01504752886162895</v>
+        <v>0.002621079590093692</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
@@ -906,60 +906,60 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>6.464838333333333</v>
+        <v>10.1095025</v>
       </c>
       <c r="H8">
-        <v>19.394515</v>
+        <v>20.219005</v>
       </c>
       <c r="I8">
-        <v>0.06925390168635236</v>
+        <v>0.1419152026119597</v>
       </c>
       <c r="J8">
-        <v>0.08498208097388053</v>
+        <v>0.1342722462324073</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.542577333333333</v>
+        <v>1.058059</v>
       </c>
       <c r="N8">
-        <v>4.627732</v>
+        <v>2.116118</v>
       </c>
       <c r="O8">
-        <v>0.194403554531223</v>
+        <v>0.806213901461467</v>
       </c>
       <c r="P8">
-        <v>0.2656184118887309</v>
+        <v>0.806213901461467</v>
       </c>
       <c r="Q8">
-        <v>9.972513076664443</v>
+        <v>10.6964501056475</v>
       </c>
       <c r="R8">
-        <v>89.75261768997999</v>
+        <v>42.78580042259</v>
       </c>
       <c r="S8">
-        <v>0.01346320465298276</v>
+        <v>0.1144140091744826</v>
       </c>
       <c r="T8">
-        <v>0.02257280538728168</v>
+        <v>0.1082521514930238</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
         <v>26</v>
@@ -968,60 +968,60 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>6.464838333333333</v>
+        <v>10.1095025</v>
       </c>
       <c r="H9">
-        <v>19.394515</v>
+        <v>20.219005</v>
       </c>
       <c r="I9">
-        <v>0.06925390168635236</v>
+        <v>0.1419152026119597</v>
       </c>
       <c r="J9">
-        <v>0.08498208097388053</v>
+        <v>0.1342722462324073</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.01005766666666667</v>
+        <v>0.254321</v>
       </c>
       <c r="N9">
-        <v>0.030173</v>
+        <v>0.508642</v>
       </c>
       <c r="O9">
-        <v>0.001267519046234871</v>
+        <v>0.193786098538533</v>
       </c>
       <c r="P9">
-        <v>0.001731842799435809</v>
+        <v>0.193786098538533</v>
       </c>
       <c r="Q9">
-        <v>0.06502118901055556</v>
+        <v>2.5710587853025</v>
       </c>
       <c r="R9">
-        <v>0.585190701095</v>
+        <v>10.28423514121</v>
       </c>
       <c r="S9">
-        <v>8.778063941352888E-05</v>
+        <v>0.0275011934374771</v>
       </c>
       <c r="T9">
-        <v>0.0001471756050156859</v>
+        <v>0.02602009473938345</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
@@ -1039,16 +1039,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.7642823333333334</v>
+        <v>0.5288903333333334</v>
       </c>
       <c r="H10">
-        <v>2.292847</v>
+        <v>1.586671</v>
       </c>
       <c r="I10">
-        <v>0.008187294228282994</v>
+        <v>0.007424458207958987</v>
       </c>
       <c r="J10">
-        <v>0.01004670183372562</v>
+        <v>0.01053691213795238</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1057,33 +1057,33 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>4.8398145</v>
+        <v>1.058059</v>
       </c>
       <c r="N10">
-        <v>9.679629</v>
+        <v>2.116118</v>
       </c>
       <c r="O10">
-        <v>0.6099383944911378</v>
+        <v>0.806213901461467</v>
       </c>
       <c r="P10">
-        <v>0.5555826661207054</v>
+        <v>0.806213901461467</v>
       </c>
       <c r="Q10">
-        <v>3.6989847189605</v>
+        <v>0.5595971771963334</v>
       </c>
       <c r="R10">
-        <v>22.193908313763</v>
+        <v>3.357583063178</v>
       </c>
       <c r="S10">
-        <v>0.004993745096825489</v>
+        <v>0.005985701418076227</v>
       </c>
       <c r="T10">
-        <v>0.005581773390501061</v>
+        <v>0.008495005044095278</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.7642823333333334</v>
+        <v>0.5288903333333334</v>
       </c>
       <c r="H11">
-        <v>2.292847</v>
+        <v>1.586671</v>
       </c>
       <c r="I11">
-        <v>0.008187294228282994</v>
+        <v>0.007424458207958987</v>
       </c>
       <c r="J11">
-        <v>0.01004670183372562</v>
+        <v>0.01053691213795238</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,33 +1119,33 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.542474</v>
+        <v>0.254321</v>
       </c>
       <c r="N11">
-        <v>3.084948</v>
+        <v>0.508642</v>
       </c>
       <c r="O11">
-        <v>0.1943905319314043</v>
+        <v>0.193786098538533</v>
       </c>
       <c r="P11">
-        <v>0.1770670791911279</v>
+        <v>0.193786098538533</v>
       </c>
       <c r="Q11">
-        <v>1.178885627826</v>
+        <v>0.1345079184636667</v>
       </c>
       <c r="R11">
-        <v>7.073313766956001</v>
+        <v>0.807047510782</v>
       </c>
       <c r="S11">
-        <v>0.001591532480114847</v>
+        <v>0.001438756789882761</v>
       </c>
       <c r="T11">
-        <v>0.001778940149201945</v>
+        <v>0.002041907093857105</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,7 +1154,7 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1163,51 +1163,51 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.7642823333333334</v>
+        <v>0.4370873333333334</v>
       </c>
       <c r="H12">
-        <v>2.292847</v>
+        <v>1.311262</v>
       </c>
       <c r="I12">
-        <v>0.008187294228282994</v>
+        <v>0.006135745796503949</v>
       </c>
       <c r="J12">
-        <v>0.01004670183372562</v>
+        <v>0.008707950472300633</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.542577333333333</v>
+        <v>1.058059</v>
       </c>
       <c r="N12">
-        <v>4.627732</v>
+        <v>2.116118</v>
       </c>
       <c r="O12">
-        <v>0.194403554531223</v>
+        <v>0.806213901461467</v>
       </c>
       <c r="P12">
-        <v>0.2656184118887309</v>
+        <v>0.806213901461467</v>
       </c>
       <c r="Q12">
-        <v>1.178964603667111</v>
+        <v>0.4624641868193334</v>
       </c>
       <c r="R12">
-        <v>10.610681433004</v>
+        <v>2.774785120916</v>
       </c>
       <c r="S12">
-        <v>0.001591639099971181</v>
+        <v>0.004946723556975246</v>
       </c>
       <c r="T12">
-        <v>0.0026685889857938</v>
+        <v>0.007020470724006717</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1216,7 +1216,7 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1225,790 +1225,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.7642823333333334</v>
+        <v>0.4370873333333334</v>
       </c>
       <c r="H13">
-        <v>2.292847</v>
+        <v>1.311262</v>
       </c>
       <c r="I13">
-        <v>0.008187294228282994</v>
+        <v>0.006135745796503949</v>
       </c>
       <c r="J13">
-        <v>0.01004670183372562</v>
+        <v>0.008707950472300633</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.01005766666666667</v>
+        <v>0.254321</v>
       </c>
       <c r="N13">
-        <v>0.030173</v>
+        <v>0.508642</v>
       </c>
       <c r="O13">
-        <v>0.001267519046234871</v>
+        <v>0.193786098538533</v>
       </c>
       <c r="P13">
-        <v>0.001731842799435809</v>
+        <v>0.193786098538533</v>
       </c>
       <c r="Q13">
-        <v>0.00768689694788889</v>
+        <v>0.1111604877006667</v>
       </c>
       <c r="R13">
-        <v>0.06918207253100001</v>
+        <v>0.6669629262040001</v>
       </c>
       <c r="S13">
-        <v>1.037755137147753E-05</v>
+        <v>0.001189022239528704</v>
       </c>
       <c r="T13">
-        <v>1.739930822881626E-05</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14">
-        <v>2</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14">
-        <v>11.332808</v>
-      </c>
-      <c r="H14">
-        <v>22.665616</v>
-      </c>
-      <c r="I14">
-        <v>0.1214015154896589</v>
-      </c>
-      <c r="J14">
-        <v>0.09931525558823628</v>
-      </c>
-      <c r="K14">
-        <v>2</v>
-      </c>
-      <c r="L14">
-        <v>1</v>
-      </c>
-      <c r="M14">
-        <v>4.8398145</v>
-      </c>
-      <c r="N14">
-        <v>9.679629</v>
-      </c>
-      <c r="O14">
-        <v>0.6099383944911378</v>
-      </c>
-      <c r="P14">
-        <v>0.5555826661207054</v>
-      </c>
-      <c r="Q14">
-        <v>54.848688484116</v>
-      </c>
-      <c r="R14">
-        <v>219.394753936464</v>
-      </c>
-      <c r="S14">
-        <v>0.07404744544655358</v>
-      </c>
-      <c r="T14">
-        <v>0.0551778344861716</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15" t="s">
-        <v>23</v>
-      </c>
-      <c r="E15">
-        <v>2</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15">
-        <v>11.332808</v>
-      </c>
-      <c r="H15">
-        <v>22.665616</v>
-      </c>
-      <c r="I15">
-        <v>0.1214015154896589</v>
-      </c>
-      <c r="J15">
-        <v>0.09931525558823628</v>
-      </c>
-      <c r="K15">
-        <v>2</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15">
-        <v>1.542474</v>
-      </c>
-      <c r="N15">
-        <v>3.084948</v>
-      </c>
-      <c r="O15">
-        <v>0.1943905319314043</v>
-      </c>
-      <c r="P15">
-        <v>0.1770670791911279</v>
-      </c>
-      <c r="Q15">
-        <v>17.480561686992</v>
-      </c>
-      <c r="R15">
-        <v>69.922246747968</v>
-      </c>
-      <c r="S15">
-        <v>0.02359930517331342</v>
-      </c>
-      <c r="T15">
-        <v>0.01758546222612934</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" t="s">
-        <v>24</v>
-      </c>
-      <c r="E16">
-        <v>2</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>11.332808</v>
-      </c>
-      <c r="H16">
-        <v>22.665616</v>
-      </c>
-      <c r="I16">
-        <v>0.1214015154896589</v>
-      </c>
-      <c r="J16">
-        <v>0.09931525558823628</v>
-      </c>
-      <c r="K16">
-        <v>3</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>1.542577333333333</v>
-      </c>
-      <c r="N16">
-        <v>4.627732</v>
-      </c>
-      <c r="O16">
-        <v>0.194403554531223</v>
-      </c>
-      <c r="P16">
-        <v>0.2656184118887309</v>
-      </c>
-      <c r="Q16">
-        <v>17.48173274381866</v>
-      </c>
-      <c r="R16">
-        <v>104.890396462912</v>
-      </c>
-      <c r="S16">
-        <v>0.02360088613666703</v>
-      </c>
-      <c r="T16">
-        <v>0.02637996046567073</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" t="s">
-        <v>25</v>
-      </c>
-      <c r="E17">
-        <v>2</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>11.332808</v>
-      </c>
-      <c r="H17">
-        <v>22.665616</v>
-      </c>
-      <c r="I17">
-        <v>0.1214015154896589</v>
-      </c>
-      <c r="J17">
-        <v>0.09931525558823628</v>
-      </c>
-      <c r="K17">
-        <v>1</v>
-      </c>
-      <c r="L17">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M17">
-        <v>0.01005766666666667</v>
-      </c>
-      <c r="N17">
-        <v>0.030173</v>
-      </c>
-      <c r="O17">
-        <v>0.001267519046234871</v>
-      </c>
-      <c r="P17">
-        <v>0.001731842799435809</v>
-      </c>
-      <c r="Q17">
-        <v>0.1139816052613333</v>
-      </c>
-      <c r="R17">
-        <v>0.6838896315680001</v>
-      </c>
-      <c r="S17">
-        <v>0.0001538787331249205</v>
-      </c>
-      <c r="T17">
-        <v>0.000171998410264614</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20">
-      <c r="A18" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18" t="s">
-        <v>20</v>
-      </c>
-      <c r="E18">
-        <v>3</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18">
-        <v>33.754358</v>
-      </c>
-      <c r="H18">
-        <v>101.263074</v>
-      </c>
-      <c r="I18">
-        <v>0.3615900150766246</v>
-      </c>
-      <c r="J18">
-        <v>0.4437103353361534</v>
-      </c>
-      <c r="K18">
-        <v>2</v>
-      </c>
-      <c r="L18">
-        <v>1</v>
-      </c>
-      <c r="M18">
-        <v>4.8398145</v>
-      </c>
-      <c r="N18">
-        <v>9.679629</v>
-      </c>
-      <c r="O18">
-        <v>0.6099383944911378</v>
-      </c>
-      <c r="P18">
-        <v>0.5555826661207054</v>
-      </c>
-      <c r="Q18">
-        <v>163.364831286591</v>
-      </c>
-      <c r="R18">
-        <v>980.1889877195459</v>
-      </c>
-      <c r="S18">
-        <v>0.2205476332598628</v>
-      </c>
-      <c r="T18">
-        <v>0.2465177710913724</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20">
-      <c r="A19" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" t="s">
-        <v>23</v>
-      </c>
-      <c r="E19">
-        <v>3</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>33.754358</v>
-      </c>
-      <c r="H19">
-        <v>101.263074</v>
-      </c>
-      <c r="I19">
-        <v>0.3615900150766246</v>
-      </c>
-      <c r="J19">
-        <v>0.4437103353361534</v>
-      </c>
-      <c r="K19">
-        <v>2</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>1.542474</v>
-      </c>
-      <c r="N19">
-        <v>3.084948</v>
-      </c>
-      <c r="O19">
-        <v>0.1943905319314043</v>
-      </c>
-      <c r="P19">
-        <v>0.1770670791911279</v>
-      </c>
-      <c r="Q19">
-        <v>52.065219601692</v>
-      </c>
-      <c r="R19">
-        <v>312.391317610152</v>
-      </c>
-      <c r="S19">
-        <v>0.07028967537182955</v>
-      </c>
-      <c r="T19">
-        <v>0.07856649308488858</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20" t="s">
-        <v>26</v>
-      </c>
-      <c r="C20" t="s">
-        <v>27</v>
-      </c>
-      <c r="D20" t="s">
-        <v>24</v>
-      </c>
-      <c r="E20">
-        <v>3</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20">
-        <v>33.754358</v>
-      </c>
-      <c r="H20">
-        <v>101.263074</v>
-      </c>
-      <c r="I20">
-        <v>0.3615900150766246</v>
-      </c>
-      <c r="J20">
-        <v>0.4437103353361534</v>
-      </c>
-      <c r="K20">
-        <v>3</v>
-      </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
-      <c r="M20">
-        <v>1.542577333333333</v>
-      </c>
-      <c r="N20">
-        <v>4.627732</v>
-      </c>
-      <c r="O20">
-        <v>0.194403554531223</v>
-      </c>
-      <c r="P20">
-        <v>0.2656184118887309</v>
-      </c>
-      <c r="Q20">
-        <v>52.06870755201866</v>
-      </c>
-      <c r="R20">
-        <v>468.6183679681679</v>
-      </c>
-      <c r="S20">
-        <v>0.07029438421389436</v>
-      </c>
-      <c r="T20">
-        <v>0.1178576346106053</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21" t="s">
-        <v>26</v>
-      </c>
-      <c r="C21" t="s">
-        <v>27</v>
-      </c>
-      <c r="D21" t="s">
-        <v>25</v>
-      </c>
-      <c r="E21">
-        <v>3</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>33.754358</v>
-      </c>
-      <c r="H21">
-        <v>101.263074</v>
-      </c>
-      <c r="I21">
-        <v>0.3615900150766246</v>
-      </c>
-      <c r="J21">
-        <v>0.4437103353361534</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-      <c r="L21">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M21">
-        <v>0.01005766666666667</v>
-      </c>
-      <c r="N21">
-        <v>0.030173</v>
-      </c>
-      <c r="O21">
-        <v>0.001267519046234871</v>
-      </c>
-      <c r="P21">
-        <v>0.001731842799435809</v>
-      </c>
-      <c r="Q21">
-        <v>0.3394900813113333</v>
-      </c>
-      <c r="R21">
-        <v>3.055410731802</v>
-      </c>
-      <c r="S21">
-        <v>0.000458322231037976</v>
-      </c>
-      <c r="T21">
-        <v>0.0007684365492871656</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" t="s">
-        <v>26</v>
-      </c>
-      <c r="C22" t="s">
-        <v>27</v>
-      </c>
-      <c r="D22" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22">
-        <v>3</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22">
-        <v>0.535784</v>
-      </c>
-      <c r="H22">
-        <v>1.607352</v>
-      </c>
-      <c r="I22">
-        <v>0.00573952983012784</v>
-      </c>
-      <c r="J22">
-        <v>0.007043028290087628</v>
-      </c>
-      <c r="K22">
-        <v>2</v>
-      </c>
-      <c r="L22">
-        <v>1</v>
-      </c>
-      <c r="M22">
-        <v>4.8398145</v>
-      </c>
-      <c r="N22">
-        <v>9.679629</v>
-      </c>
-      <c r="O22">
-        <v>0.6099383944911378</v>
-      </c>
-      <c r="P22">
-        <v>0.5555826661207054</v>
-      </c>
-      <c r="Q22">
-        <v>2.593095172068</v>
-      </c>
-      <c r="R22">
-        <v>15.558571032408</v>
-      </c>
-      <c r="S22">
-        <v>0.003500759609722168</v>
-      </c>
-      <c r="T22">
-        <v>0.003912984434970438</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" t="s">
-        <v>25</v>
-      </c>
-      <c r="B23" t="s">
-        <v>26</v>
-      </c>
-      <c r="C23" t="s">
-        <v>27</v>
-      </c>
-      <c r="D23" t="s">
-        <v>23</v>
-      </c>
-      <c r="E23">
-        <v>3</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23">
-        <v>0.535784</v>
-      </c>
-      <c r="H23">
-        <v>1.607352</v>
-      </c>
-      <c r="I23">
-        <v>0.00573952983012784</v>
-      </c>
-      <c r="J23">
-        <v>0.007043028290087628</v>
-      </c>
-      <c r="K23">
-        <v>2</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-      <c r="M23">
-        <v>1.542474</v>
-      </c>
-      <c r="N23">
-        <v>3.084948</v>
-      </c>
-      <c r="O23">
-        <v>0.1943905319314043</v>
-      </c>
-      <c r="P23">
-        <v>0.1770670791911279</v>
-      </c>
-      <c r="Q23">
-        <v>0.8264328896160001</v>
-      </c>
-      <c r="R23">
-        <v>4.958597337696001</v>
-      </c>
-      <c r="S23">
-        <v>0.001115710256714713</v>
-      </c>
-      <c r="T23">
-        <v>0.0012470884479863</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" t="s">
-        <v>25</v>
-      </c>
-      <c r="B24" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" t="s">
-        <v>24</v>
-      </c>
-      <c r="E24">
-        <v>3</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24">
-        <v>0.535784</v>
-      </c>
-      <c r="H24">
-        <v>1.607352</v>
-      </c>
-      <c r="I24">
-        <v>0.00573952983012784</v>
-      </c>
-      <c r="J24">
-        <v>0.007043028290087628</v>
-      </c>
-      <c r="K24">
-        <v>3</v>
-      </c>
-      <c r="L24">
-        <v>1</v>
-      </c>
-      <c r="M24">
-        <v>1.542577333333333</v>
-      </c>
-      <c r="N24">
-        <v>4.627732</v>
-      </c>
-      <c r="O24">
-        <v>0.194403554531223</v>
-      </c>
-      <c r="P24">
-        <v>0.2656184118887309</v>
-      </c>
-      <c r="Q24">
-        <v>0.8264882539626667</v>
-      </c>
-      <c r="R24">
-        <v>7.438394285664001</v>
-      </c>
-      <c r="S24">
-        <v>0.001115785000314839</v>
-      </c>
-      <c r="T24">
-        <v>0.001870757989300479</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" t="s">
-        <v>27</v>
-      </c>
-      <c r="D25" t="s">
-        <v>25</v>
-      </c>
-      <c r="E25">
-        <v>3</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>0.535784</v>
-      </c>
-      <c r="H25">
-        <v>1.607352</v>
-      </c>
-      <c r="I25">
-        <v>0.00573952983012784</v>
-      </c>
-      <c r="J25">
-        <v>0.007043028290087628</v>
-      </c>
-      <c r="K25">
-        <v>1</v>
-      </c>
-      <c r="L25">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M25">
-        <v>0.01005766666666667</v>
-      </c>
-      <c r="N25">
-        <v>0.030173</v>
-      </c>
-      <c r="O25">
-        <v>0.001267519046234871</v>
-      </c>
-      <c r="P25">
-        <v>0.001731842799435809</v>
-      </c>
-      <c r="Q25">
-        <v>0.005388736877333334</v>
-      </c>
-      <c r="R25">
-        <v>0.048498631896</v>
-      </c>
-      <c r="S25">
-        <v>7.274963376120233E-06</v>
-      </c>
-      <c r="T25">
-        <v>1.219741783041096E-05</v>
+        <v>0.001687479748293916</v>
       </c>
     </row>
   </sheetData>
